--- a/Tools/bug.xlsx
+++ b/Tools/bug.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19728" windowHeight="10115"/>
+    <workbookView windowWidth="22931" windowHeight="10524"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19">
   <si>
     <t>错误类型</t>
   </si>
@@ -69,6 +69,44 @@
   </si>
   <si>
     <t>注解Servlet中有重名的映射</t>
+  </si>
+  <si>
+    <t>ssh</t>
+  </si>
+  <si>
+    <t>getFlushMode is not valid without active transaction; nested exception is org.hibernate.HibernateException: getFlushMode is not valid without active transaction</t>
+  </si>
+  <si>
+    <r>
+      <t>hibernate.cfg.xml</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>文件多了</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16.5"/>
+        <color theme="1"/>
+        <rFont val="Tahoma"/>
+        <charset val="134"/>
+      </rPr>
+      <t>&lt;property name="hibernate.current_session_context_class"&gt;thread&lt;/property&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>配置，</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -76,17 +114,30 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="20">
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="16.5"/>
+      <color theme="1"/>
+      <name val="Tahoma"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -105,6 +156,113 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="15"/>
       <color theme="3"/>
@@ -113,125 +271,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="16.5"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="34">
@@ -255,181 +305,181 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -452,26 +502,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -515,17 +552,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -540,6 +566,30 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -548,10 +598,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -560,19 +610,19 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -581,116 +631,116 @@
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="29" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="30" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="27" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -698,16 +748,22 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1027,13 +1083,13 @@
   <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="50.4" customHeight="1" outlineLevelRow="5" outlineLevelCol="4"/>
   <cols>
     <col min="1" max="1" width="26.3333333333333" style="1" customWidth="1"/>
-    <col min="2" max="2" width="113.888888888889" style="1" customWidth="1"/>
+    <col min="2" max="2" width="111.222222222222" style="1" customWidth="1"/>
     <col min="3" max="3" width="71.3333333333333" style="1" customWidth="1"/>
     <col min="4" max="4" width="15.3333333333333" style="1" customWidth="1"/>
     <col min="5" max="16384" width="8.88888888888889" style="1"/>
@@ -1057,61 +1113,72 @@
       <c r="A2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="4">
+      <c r="D2" s="5">
         <v>42993</v>
       </c>
     </row>
     <row r="3" customHeight="1" spans="1:4">
-      <c r="A3" s="1" t="s">
+      <c r="A3" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C3" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="D3" s="4">
+      <c r="D3" s="5">
         <v>42993</v>
       </c>
     </row>
     <row r="4" customHeight="1" spans="1:4">
-      <c r="A4" s="1" t="s">
+      <c r="A4" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="B4" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="C4" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="D4" s="4">
+      <c r="D4" s="5">
         <v>42994</v>
       </c>
     </row>
     <row r="5" ht="90" customHeight="1" spans="1:5">
-      <c r="A5" s="1" t="s">
+      <c r="A5" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="B5" s="5" t="s">
+      <c r="B5" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="C5" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="D5" s="4">
+      <c r="D5" s="5">
         <v>43001</v>
       </c>
       <c r="E5"/>
     </row>
-    <row r="6" customHeight="1" spans="4:4">
-      <c r="D6"/>
+    <row r="6" ht="80" customHeight="1" spans="1:4">
+      <c r="A6" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="D6" s="7">
+        <v>43034</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
